--- a/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S6/S6_lossmod.xlsx
+++ b/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S6/S6_lossmod.xlsx
@@ -14,222 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Temperature (Celsius)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>93.25122203098107</t>
-  </si>
-  <si>
-    <t>94.61053356282272</t>
-  </si>
-  <si>
-    <t>96.0717934595525</t>
-  </si>
-  <si>
-    <t>97.25633636587165</t>
-  </si>
-  <si>
-    <t>98.49967489003633</t>
-  </si>
-  <si>
-    <t>99.5380378657487</t>
-  </si>
-  <si>
-    <t>100.89734939759036</t>
-  </si>
-  <si>
-    <t>102.76640275387263</t>
-  </si>
-  <si>
-    <t>104.6354561101549</t>
-  </si>
-  <si>
-    <t>105.96644865174986</t>
-  </si>
-  <si>
-    <t>106.6914148020654</t>
-  </si>
-  <si>
-    <t>107.79585542168675</t>
-  </si>
-  <si>
-    <t>109.22313253012048</t>
-  </si>
-  <si>
-    <t>110.41253012048193</t>
-  </si>
-  <si>
-    <t>111.68688468158348</t>
-  </si>
-  <si>
-    <t>113.06743545611016</t>
-  </si>
-  <si>
-    <t>114.55843029259896</t>
-  </si>
-  <si>
-    <t>116.27456110154904</t>
-  </si>
-  <si>
-    <t>118.09641614075349</t>
-  </si>
-  <si>
-    <t>119.92771084337349</t>
-  </si>
-  <si>
-    <t>121.86472977624784</t>
-  </si>
-  <si>
-    <t>123.83573149741824</t>
-  </si>
-  <si>
-    <t>125.70478485370052</t>
-  </si>
-  <si>
-    <t>127.80039013195639</t>
-  </si>
-  <si>
-    <t>129.85068502581754</t>
-  </si>
-  <si>
-    <t>131.59513482501433</t>
-  </si>
-  <si>
-    <t>133.7417142857143</t>
-  </si>
-  <si>
-    <t>135.43235800344235</t>
-  </si>
-  <si>
-    <t>137.72012785837225</t>
-  </si>
-  <si>
-    <t>139.63772805507745</t>
-  </si>
-  <si>
-    <t>141.4897900172117</t>
-  </si>
-  <si>
-    <t>143.375834767642</t>
-  </si>
-  <si>
-    <t>145.24488812392426</t>
-  </si>
-  <si>
-    <t>147.11394148020653</t>
-  </si>
-  <si>
-    <t>148.98299483648879</t>
-  </si>
-  <si>
-    <t>597150.9115433207</t>
-  </si>
-  <si>
-    <t>807221.4716632154</t>
-  </si>
-  <si>
-    <t>1080976.4956457252</t>
-  </si>
-  <si>
-    <t>1421604.6445710126</t>
-  </si>
-  <si>
-    <t>1845399.9211959674</t>
-  </si>
-  <si>
-    <t>2353408.4144014893</t>
-  </si>
-  <si>
-    <t>2782666.329373312</t>
-  </si>
-  <si>
-    <t>2985299.7896281267</t>
-  </si>
-  <si>
-    <t>2623918.0947420476</t>
-  </si>
-  <si>
-    <t>2278998.497297717</t>
-  </si>
-  <si>
-    <t>1731723.4582622936</t>
-  </si>
-  <si>
-    <t>1300683.9467844504</t>
-  </si>
-  <si>
-    <t>1012515.3103692995</t>
-  </si>
-  <si>
-    <t>787616.1925340176</t>
-  </si>
-  <si>
-    <t>621947.8088959175</t>
-  </si>
-  <si>
-    <t>486481.06665916916</t>
-  </si>
-  <si>
-    <t>391342.38171542354</t>
-  </si>
-  <si>
-    <t>300427.9526624089</t>
-  </si>
-  <si>
-    <t>239454.34705222497</t>
-  </si>
-  <si>
-    <t>198629.7014919109</t>
-  </si>
-  <si>
-    <t>161277.44013294723</t>
-  </si>
-  <si>
-    <t>134303.96516366914</t>
-  </si>
-  <si>
-    <t>117676.17892895822</t>
-  </si>
-  <si>
-    <t>96831.36277281007</t>
-  </si>
-  <si>
-    <t>86433.1602877948</t>
-  </si>
-  <si>
-    <t>76724.15342627671</t>
-  </si>
-  <si>
-    <t>68620.83766113687</t>
-  </si>
-  <si>
-    <t>61977.05875050971</t>
-  </si>
-  <si>
-    <t>55409.619230902405</t>
-  </si>
-  <si>
-    <t>53952.19763249565</t>
-  </si>
-  <si>
-    <t>47939.91175849525</t>
-  </si>
-  <si>
-    <t>47325.21096617104</t>
-  </si>
-  <si>
-    <t>45750.7746623746</t>
-  </si>
-  <si>
-    <t>42996.01260044049</t>
-  </si>
-  <si>
-    <t>40393.27897071359</t>
+    <t>Loss modulus (Pa)</t>
   </si>
 </sst>
 </file>
@@ -602,283 +392,283 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>37</v>
+      <c r="A2">
+        <v>93.25122203098107</v>
+      </c>
+      <c r="B2">
+        <v>597150.9115433207</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
+      <c r="A3">
+        <v>94.61053356282272</v>
+      </c>
+      <c r="B3">
+        <v>807221.4716632154</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
+      <c r="A4">
+        <v>96.0717934595525</v>
+      </c>
+      <c r="B4">
+        <v>1080976.495645725</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
+      <c r="A5">
+        <v>97.25633636587165</v>
+      </c>
+      <c r="B5">
+        <v>1421604.644571013</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>41</v>
+      <c r="A6">
+        <v>98.49967489003633</v>
+      </c>
+      <c r="B6">
+        <v>1845399.921195967</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>42</v>
+      <c r="A7">
+        <v>99.53803786574871</v>
+      </c>
+      <c r="B7">
+        <v>2353408.414401489</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>43</v>
+      <c r="A8">
+        <v>100.8973493975904</v>
+      </c>
+      <c r="B8">
+        <v>2782666.329373312</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>44</v>
+      <c r="A9">
+        <v>102.7664027538726</v>
+      </c>
+      <c r="B9">
+        <v>2985299.789628127</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>45</v>
+      <c r="A10">
+        <v>104.6354561101549</v>
+      </c>
+      <c r="B10">
+        <v>2623918.094742048</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>46</v>
+      <c r="A11">
+        <v>105.9664486517499</v>
+      </c>
+      <c r="B11">
+        <v>2278998.497297717</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>47</v>
+      <c r="A12">
+        <v>106.6914148020654</v>
+      </c>
+      <c r="B12">
+        <v>1731723.458262294</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>48</v>
+      <c r="A13">
+        <v>107.7958554216868</v>
+      </c>
+      <c r="B13">
+        <v>1300683.94678445</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>49</v>
+      <c r="A14">
+        <v>109.2231325301205</v>
+      </c>
+      <c r="B14">
+        <v>1012515.310369299</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>50</v>
+      <c r="A15">
+        <v>110.4125301204819</v>
+      </c>
+      <c r="B15">
+        <v>787616.1925340176</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>51</v>
+      <c r="A16">
+        <v>111.6868846815835</v>
+      </c>
+      <c r="B16">
+        <v>621947.8088959175</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>52</v>
+      <c r="A17">
+        <v>113.0674354561102</v>
+      </c>
+      <c r="B17">
+        <v>486481.0666591692</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>53</v>
+      <c r="A18">
+        <v>114.558430292599</v>
+      </c>
+      <c r="B18">
+        <v>391342.3817154235</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>54</v>
+      <c r="A19">
+        <v>116.274561101549</v>
+      </c>
+      <c r="B19">
+        <v>300427.9526624089</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>55</v>
+      <c r="A20">
+        <v>118.0964161407535</v>
+      </c>
+      <c r="B20">
+        <v>239454.347052225</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>56</v>
+      <c r="A21">
+        <v>119.9277108433735</v>
+      </c>
+      <c r="B21">
+        <v>198629.7014919109</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>57</v>
+      <c r="A22">
+        <v>121.8647297762478</v>
+      </c>
+      <c r="B22">
+        <v>161277.4401329472</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>58</v>
+      <c r="A23">
+        <v>123.8357314974182</v>
+      </c>
+      <c r="B23">
+        <v>134303.9651636691</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>59</v>
+      <c r="A24">
+        <v>125.7047848537005</v>
+      </c>
+      <c r="B24">
+        <v>117676.1789289582</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" t="s">
-        <v>60</v>
+      <c r="A25">
+        <v>127.8003901319564</v>
+      </c>
+      <c r="B25">
+        <v>96831.36277281007</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" t="s">
-        <v>61</v>
+      <c r="A26">
+        <v>129.8506850258175</v>
+      </c>
+      <c r="B26">
+        <v>86433.1602877948</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" t="s">
-        <v>62</v>
+      <c r="A27">
+        <v>131.5951348250143</v>
+      </c>
+      <c r="B27">
+        <v>76724.15342627671</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" t="s">
-        <v>63</v>
+      <c r="A28">
+        <v>133.7417142857143</v>
+      </c>
+      <c r="B28">
+        <v>68620.83766113687</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29" t="s">
-        <v>64</v>
+      <c r="A29">
+        <v>135.4323580034423</v>
+      </c>
+      <c r="B29">
+        <v>61977.05875050971</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" t="s">
-        <v>65</v>
+      <c r="A30">
+        <v>137.7201278583723</v>
+      </c>
+      <c r="B30">
+        <v>55409.6192309024</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" t="s">
-        <v>66</v>
+      <c r="A31">
+        <v>139.6377280550774</v>
+      </c>
+      <c r="B31">
+        <v>53952.19763249565</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" t="s">
-        <v>67</v>
+      <c r="A32">
+        <v>141.4897900172117</v>
+      </c>
+      <c r="B32">
+        <v>47939.91175849525</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" t="s">
-        <v>68</v>
+      <c r="A33">
+        <v>143.375834767642</v>
+      </c>
+      <c r="B33">
+        <v>47325.21096617104</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" t="s">
-        <v>69</v>
+      <c r="A34">
+        <v>145.2448881239243</v>
+      </c>
+      <c r="B34">
+        <v>45750.7746623746</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" t="s">
-        <v>70</v>
+      <c r="A35">
+        <v>147.1139414802065</v>
+      </c>
+      <c r="B35">
+        <v>42996.01260044049</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" t="s">
-        <v>71</v>
+      <c r="A36">
+        <v>148.9829948364888</v>
+      </c>
+      <c r="B36">
+        <v>40393.27897071359</v>
       </c>
     </row>
   </sheetData>
